--- a/taller 3/Taller Arquitectura-20240526/[1] Planilla de seguimiento.xlsx
+++ b/taller 3/Taller Arquitectura-20240526/[1] Planilla de seguimiento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>A</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>VALOR</t>
+  </si>
+  <si>
+    <t>0x7ffffff0</t>
   </si>
   <si>
     <t>0x00700293</t>
@@ -253,7 +256,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -408,10 +411,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +756,7 @@
     <col min="30" max="30" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -817,7 +820,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -982,28 +985,30 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" s="15">
         <v>0</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P6" s="15">
         <v>0</v>
@@ -1028,10 +1033,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1040,14 +1045,14 @@
       <c r="J7" s="11"/>
       <c r="K7" s="12"/>
       <c r="L7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" s="15">
         <v>0</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" s="15">
         <v>0</v>
@@ -1074,30 +1079,32 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
-      <c r="M8" s="15">
-        <v>0</v>
+      <c r="M8" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="15">
         <v>0</v>
@@ -1122,10 +1129,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1134,14 +1141,14 @@
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
       <c r="L9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" s="15">
         <v>0</v>
@@ -1168,30 +1175,32 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="15">
         <v>0</v>
@@ -1216,10 +1225,10 @@
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1228,14 +1237,14 @@
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
       <c r="L11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="15">
         <v>3</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="15">
         <v>0</v>
@@ -1262,30 +1271,32 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
       <c r="J12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="15">
         <v>1</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="15">
         <v>0</v>
@@ -1310,10 +1321,10 @@
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1322,14 +1333,14 @@
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
       <c r="L13" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="15">
         <v>0</v>
@@ -1356,30 +1367,32 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
       <c r="J14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" s="15">
         <v>0</v>
@@ -1404,10 +1417,10 @@
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
       <c r="D15" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1416,14 +1429,14 @@
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
       <c r="L15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
@@ -1450,30 +1463,32 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
       <c r="J16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P16" s="15">
         <v>0</v>
@@ -1498,10 +1513,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1510,14 +1525,14 @@
       <c r="J17" s="11"/>
       <c r="K17" s="12"/>
       <c r="L17" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P17" s="15">
         <v>0</v>
@@ -1552,14 +1567,14 @@
       <c r="J18" s="6"/>
       <c r="K18" s="12"/>
       <c r="L18" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
@@ -1584,7 +1599,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="10"/>
@@ -1594,14 +1609,14 @@
       <c r="J19" s="11"/>
       <c r="K19" s="12"/>
       <c r="L19" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
@@ -1636,7 +1651,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="12"/>
       <c r="L20" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -1664,7 +1679,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
       <c r="D21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="10"/>
@@ -1674,7 +1689,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="12"/>
       <c r="L21" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -1712,7 +1727,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="12"/>
       <c r="L22" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M22" s="15">
         <v>0</v>
@@ -1740,7 +1755,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
       <c r="D23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="10"/>
@@ -1750,7 +1765,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="12"/>
       <c r="L23" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="15">
         <v>0</v>
@@ -1812,7 +1827,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
       <c r="D25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="10"/>
@@ -1880,7 +1895,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
       <c r="D27" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="10"/>
@@ -1948,7 +1963,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="10"/>
@@ -2016,7 +2031,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="10"/>
@@ -2084,7 +2099,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
       <c r="D33" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="10"/>
@@ -2152,7 +2167,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
       <c r="D35" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="10"/>
